--- a/Excel/ExcelData/NormalBless.xlsx
+++ b/Excel/ExcelData/NormalBless.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22845" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,13 +57,13 @@
     <t>普攻造成10雷击属性伤害</t>
   </si>
   <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test3_DES</t>
-  </si>
-  <si>
-    <t>Test3_Effect</t>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>测试_Des</t>
+  </si>
+  <si>
+    <t>测试_Effect</t>
   </si>
   <si>
     <t>Test4</t>
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Excel/ExcelData/NormalBless.xlsx
+++ b/Excel/ExcelData/NormalBless.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>BlessEffect</t>
+  </si>
+  <si>
+    <t>BlessBuff</t>
   </si>
   <si>
     <t>瓦尔基里之怒</t>
@@ -1249,18 +1252,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="6" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,6 +1281,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1285,17 +1291,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1303,17 +1309,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1321,17 +1327,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1339,17 +1345,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1357,17 +1363,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1375,17 +1381,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1393,17 +1399,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1411,17 +1417,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1429,17 +1435,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1447,17 +1453,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1465,17 +1471,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1483,17 +1489,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1501,17 +1507,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1519,17 +1525,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1537,17 +1543,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1555,17 +1561,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1573,17 +1579,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1591,17 +1597,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1609,17 +1615,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1627,17 +1633,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1645,17 +1651,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1663,17 +1669,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1681,17 +1687,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1699,17 +1705,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1717,17 +1723,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1735,17 +1741,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1753,17 +1759,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1771,17 +1777,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1789,17 +1795,17 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1807,17 +1813,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1825,17 +1831,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
